--- a/氣象性能評估工具V2/data/obs/backup/2016-06-27_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-27_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-27 00:00:00</t>
+    <t>2016-06-27-00</t>
   </si>
   <si>
     <t>22.7</t>
@@ -151,7 +151,7 @@
     <t>28.8</t>
   </si>
   <si>
-    <t>2016-06-27 01:00:00</t>
+    <t>2016-06-27-01</t>
   </si>
   <si>
     <t>22.6</t>
@@ -187,7 +187,7 @@
     <t>26.4</t>
   </si>
   <si>
-    <t>2016-06-27 02:00:00</t>
+    <t>2016-06-27-02</t>
   </si>
   <si>
     <t>27.4</t>
@@ -217,7 +217,7 @@
     <t>28.4</t>
   </si>
   <si>
-    <t>2016-06-27 03:00:00</t>
+    <t>2016-06-27-03</t>
   </si>
   <si>
     <t>22.3</t>
@@ -238,7 +238,7 @@
     <t>25.7</t>
   </si>
   <si>
-    <t>2016-06-27 04:00:00</t>
+    <t>2016-06-27-04</t>
   </si>
   <si>
     <t>22.8</t>
@@ -262,7 +262,7 @@
     <t>25.8</t>
   </si>
   <si>
-    <t>2016-06-27 05:00:00</t>
+    <t>2016-06-27-05</t>
   </si>
   <si>
     <t>23.5</t>
@@ -283,7 +283,7 @@
     <t>28.6</t>
   </si>
   <si>
-    <t>2016-06-27 06:00:00</t>
+    <t>2016-06-27-06</t>
   </si>
   <si>
     <t>24.1</t>
@@ -310,7 +310,7 @@
     <t>30.2</t>
   </si>
   <si>
-    <t>2016-06-27 07:00:00</t>
+    <t>2016-06-27-07</t>
   </si>
   <si>
     <t>25.1</t>
@@ -358,7 +358,7 @@
     <t>30.8</t>
   </si>
   <si>
-    <t>2016-06-27 08:00:00</t>
+    <t>2016-06-27-08</t>
   </si>
   <si>
     <t>32.0</t>
@@ -400,7 +400,7 @@
     <t>32.3</t>
   </si>
   <si>
-    <t>2016-06-27 09:00:00</t>
+    <t>2016-06-27-09</t>
   </si>
   <si>
     <t>33.4</t>
@@ -445,7 +445,7 @@
     <t>32.9</t>
   </si>
   <si>
-    <t>2016-06-27 10:00:00</t>
+    <t>2016-06-27-10</t>
   </si>
   <si>
     <t>30.0</t>
@@ -475,7 +475,7 @@
     <t>33.5</t>
   </si>
   <si>
-    <t>2016-06-27 11:00:00</t>
+    <t>2016-06-27-11</t>
   </si>
   <si>
     <t>34.3</t>
@@ -496,7 +496,7 @@
     <t>14.2</t>
   </si>
   <si>
-    <t>2016-06-27 12:00:00</t>
+    <t>2016-06-27-12</t>
   </si>
   <si>
     <t>35.7</t>
@@ -520,7 +520,7 @@
     <t>12.3</t>
   </si>
   <si>
-    <t>2016-06-27 13:00:00</t>
+    <t>2016-06-27-13</t>
   </si>
   <si>
     <t>35.5</t>
@@ -532,7 +532,7 @@
     <t>10.8</t>
   </si>
   <si>
-    <t>2016-06-27 14:00:00</t>
+    <t>2016-06-27-14</t>
   </si>
   <si>
     <t>35.0</t>
@@ -547,7 +547,7 @@
     <t>10.6</t>
   </si>
   <si>
-    <t>2016-06-27 15:00:00</t>
+    <t>2016-06-27-15</t>
   </si>
   <si>
     <t>17.1</t>
@@ -559,7 +559,7 @@
     <t>29.5</t>
   </si>
   <si>
-    <t>2016-06-27 16:00:00</t>
+    <t>2016-06-27-16</t>
   </si>
   <si>
     <t>25.0</t>
@@ -574,7 +574,7 @@
     <t>8.4</t>
   </si>
   <si>
-    <t>2016-06-27 17:00:00</t>
+    <t>2016-06-27-17</t>
   </si>
   <si>
     <t>30.4</t>
@@ -595,7 +595,7 @@
     <t>29.2</t>
   </si>
   <si>
-    <t>2016-06-27 18:00:00</t>
+    <t>2016-06-27-18</t>
   </si>
   <si>
     <t>23.4</t>
@@ -610,7 +610,7 @@
     <t>7.3</t>
   </si>
   <si>
-    <t>2016-06-27 19:00:00</t>
+    <t>2016-06-27-19</t>
   </si>
   <si>
     <t>23.0</t>
@@ -628,7 +628,7 @@
     <t>6.8</t>
   </si>
   <si>
-    <t>2016-06-27 20:00:00</t>
+    <t>2016-06-27-20</t>
   </si>
   <si>
     <t>23.1</t>
@@ -640,7 +640,7 @@
     <t>15.3</t>
   </si>
   <si>
-    <t>2016-06-27 21:00:00</t>
+    <t>2016-06-27-21</t>
   </si>
   <si>
     <t>22.4</t>
@@ -652,13 +652,13 @@
     <t>14.6</t>
   </si>
   <si>
-    <t>2016-06-27 22:00:00</t>
+    <t>2016-06-27-22</t>
   </si>
   <si>
     <t>15.4</t>
   </si>
   <si>
-    <t>2016-06-27 23:00:00</t>
+    <t>2016-06-27-23</t>
   </si>
   <si>
     <t>24.6</t>
